--- a/docs/部品選定・発注/購入申請(20210427).xlsx
+++ b/docs/部品選定・発注/購入申請(20210427).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAOYUKI\Documents\4回生前期\プロジェクト演習4\gitPro4\docs\部品選定・発注\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{4A55062F-B051-4881-9622-42161F9DADF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0B0D810E-5D6D-4611-8C36-55DD670C746F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA83B4-60C0-452A-BB01-AC6E2EABD2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2040" windowWidth="25185" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="1">
@@ -341,6 +341,22 @@
   </si>
   <si>
     <t>合計 ¥10,000（税抜）以上お買い上げいただくと、日本国内であれば送料無料（通常配送に限ります）</t>
+  </si>
+  <si>
+    <t>これは移動局用です。基地局としてのGPSは一昨年のものを利用します。</t>
+    <rPh sb="3" eb="7">
+      <t>イドウキョクヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キチキョク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イッサクネン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -704,6 +720,9 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1368,38 +1384,38 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="16.84375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.15234375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.23046875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.23046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.4609375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3828125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.4609375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1449,7 +1465,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1464,7 +1480,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1479,7 +1495,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1494,7 +1510,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1509,7 +1525,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1524,7 +1540,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1539,7 +1555,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1554,7 +1570,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1569,7 +1585,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1582,16 +1598,16 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="28">
         <f>SUM(H3:H12)</f>
         <v>0</v>
@@ -1600,13 +1616,13 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="27"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="27"/>
     </row>
   </sheetData>
@@ -1625,42 +1641,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD651BF2-3CD5-4AC4-A105-AF8C7F0AE2DB}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.07421875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.84375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.3828125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.3828125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="14" customWidth="1"/>
     <col min="6" max="6" width="8" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.23046875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="90.4609375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="90.5" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -1693,7 +1709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1722,12 +1738,12 @@
       <c r="I3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="29" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1768,7 +1784,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1804,7 +1820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1838,7 +1854,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1866,7 +1882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1879,7 +1895,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1911,9 +1927,11 @@
       <c r="J10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1954,7 +1972,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1988,7 +2006,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2014,7 +2032,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2040,7 +2058,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2053,7 +2071,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -2085,7 +2103,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2117,7 +2135,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2158,16 +2176,16 @@
       <c r="J20" s="15"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="26">
         <f>SUM(H3:H18)</f>
         <v>108621</v>
@@ -2176,14 +2194,14 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="12" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="27"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="27"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B27" s="27"/>
     </row>
   </sheetData>
@@ -2202,6 +2220,7 @@
     <hyperlink ref="J18" r:id="rId7" xr:uid="{BA0D99CD-9D24-442A-AC14-72745C0136EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>